--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hillcapitalinvet-my.sharepoint.com/personal/antonio_pontes_thehill_capital/Documents/Área de Trabalho/Projeto - Balcão The Hill/Cofing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E65804-AF3C-465B-955F-D71EA5EDF18B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
@@ -86,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +426,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,13 +461,13 @@
         <v>252</v>
       </c>
       <c r="B3">
-        <v>9.4427000000000003</v>
+        <v>9.3071000000000002</v>
       </c>
       <c r="C3">
-        <v>14.0336</v>
+        <v>13.747</v>
       </c>
       <c r="D3">
-        <v>4.1947000000000001</v>
+        <v>4.0617999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -474,13 +475,13 @@
         <v>378</v>
       </c>
       <c r="B4">
-        <v>8.7357999999999993</v>
+        <v>8.5833999999999993</v>
       </c>
       <c r="C4">
-        <v>13.536</v>
+        <v>13.2417</v>
       </c>
       <c r="D4">
-        <v>4.4145000000000003</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -488,13 +489,13 @@
         <v>504</v>
       </c>
       <c r="B5">
-        <v>8.3748000000000005</v>
+        <v>8.2175999999999991</v>
       </c>
       <c r="C5">
-        <v>13.2652</v>
+        <v>12.994400000000001</v>
       </c>
       <c r="D5">
-        <v>4.5124000000000004</v>
+        <v>4.4139999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,13 +503,13 @@
         <v>630</v>
       </c>
       <c r="B6">
-        <v>8.1858000000000004</v>
+        <v>8.0226000000000006</v>
       </c>
       <c r="C6">
-        <v>13.169600000000001</v>
+        <v>12.927300000000001</v>
       </c>
       <c r="D6">
-        <v>4.6067</v>
+        <v>4.5404</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,13 +517,13 @@
         <v>756</v>
       </c>
       <c r="B7">
-        <v>8.0801999999999996</v>
+        <v>7.9077000000000002</v>
       </c>
       <c r="C7">
-        <v>13.1836</v>
+        <v>12.9673</v>
       </c>
       <c r="D7">
-        <v>4.7218</v>
+        <v>4.6887999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -530,567 +531,567 @@
         <v>882</v>
       </c>
       <c r="B8">
-        <v>8.0137999999999998</v>
+        <v>7.8296000000000001</v>
       </c>
       <c r="C8">
-        <v>13.257400000000001</v>
+        <v>13.0632</v>
       </c>
       <c r="D8">
-        <v>4.8544999999999998</v>
+        <v>4.8535000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1008</v>
       </c>
       <c r="B9">
-        <v>7.9645999999999999</v>
+        <v>7.7679999999999998</v>
       </c>
       <c r="C9">
-        <v>13.358499999999999</v>
+        <v>13.182700000000001</v>
       </c>
       <c r="D9">
-        <v>4.9958999999999998</v>
+        <v>5.0244</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>1134</v>
       </c>
       <c r="B10">
-        <v>7.9222000000000001</v>
+        <v>7.7138</v>
       </c>
       <c r="C10">
-        <v>13.466799999999999</v>
+        <v>13.3065</v>
       </c>
       <c r="D10">
-        <v>5.1375000000000002</v>
+        <v>5.1920999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1260</v>
       </c>
       <c r="B11">
-        <v>7.8822000000000001</v>
+        <v>7.6631999999999998</v>
       </c>
       <c r="C11">
-        <v>13.570600000000001</v>
+        <v>13.4237</v>
       </c>
       <c r="D11">
-        <v>5.2727000000000004</v>
+        <v>5.3503999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1386</v>
       </c>
       <c r="B12">
-        <v>7.8426</v>
+        <v>7.6147999999999998</v>
       </c>
       <c r="C12">
-        <v>13.6631</v>
+        <v>13.527900000000001</v>
       </c>
       <c r="D12">
-        <v>5.3971999999999998</v>
+        <v>5.4946000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>1512</v>
       </c>
       <c r="B13">
-        <v>7.8029000000000002</v>
+        <v>7.5682</v>
       </c>
       <c r="C13">
-        <v>13.7409</v>
+        <v>13.616199999999999</v>
       </c>
       <c r="D13">
-        <v>5.5082000000000004</v>
+        <v>5.6223999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>1638</v>
       </c>
       <c r="B14">
-        <v>7.7633000000000001</v>
+        <v>7.5235000000000003</v>
       </c>
       <c r="C14">
-        <v>13.8025</v>
+        <v>13.6873</v>
       </c>
       <c r="D14">
-        <v>5.6040999999999999</v>
+        <v>5.7324999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>1764</v>
       </c>
       <c r="B15">
-        <v>7.7241</v>
+        <v>7.4806999999999997</v>
       </c>
       <c r="C15">
-        <v>13.8476</v>
+        <v>13.741099999999999</v>
       </c>
       <c r="D15">
-        <v>5.6844000000000001</v>
+        <v>5.8246000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1890</v>
       </c>
       <c r="B16">
-        <v>7.6855000000000002</v>
+        <v>7.4401000000000002</v>
       </c>
       <c r="C16">
-        <v>13.8766</v>
+        <v>13.778</v>
       </c>
       <c r="D16">
-        <v>5.7492000000000001</v>
+        <v>5.899</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>2016</v>
       </c>
       <c r="B17">
-        <v>7.6478999999999999</v>
+        <v>7.4017999999999997</v>
       </c>
       <c r="C17">
-        <v>13.8902</v>
+        <v>13.799099999999999</v>
       </c>
       <c r="D17">
-        <v>5.7988</v>
+        <v>5.9564000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>2142</v>
       </c>
       <c r="B18">
-        <v>7.6115000000000004</v>
+        <v>7.3655999999999997</v>
       </c>
       <c r="C18">
-        <v>13.8895</v>
+        <v>13.805300000000001</v>
       </c>
       <c r="D18">
-        <v>5.8338999999999999</v>
+        <v>5.9978999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>2268</v>
       </c>
       <c r="B19">
-        <v>7.5765000000000002</v>
+        <v>7.3316999999999997</v>
       </c>
       <c r="C19">
-        <v>13.8756</v>
+        <v>13.798</v>
       </c>
       <c r="D19">
-        <v>5.8554000000000004</v>
+        <v>6.0244999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>2394</v>
       </c>
       <c r="B20">
-        <v>7.5430000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>2520</v>
       </c>
       <c r="B21">
-        <v>7.5109000000000004</v>
+        <v>7.2702999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>2646</v>
       </c>
       <c r="B22">
-        <v>7.4805000000000001</v>
+        <v>7.2426000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>2772</v>
       </c>
       <c r="B23">
-        <v>7.4516</v>
+        <v>7.2167000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>2898</v>
       </c>
       <c r="B24">
-        <v>7.4241999999999999</v>
+        <v>7.1925999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>3024</v>
       </c>
       <c r="B25">
-        <v>7.3982999999999999</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>3150</v>
       </c>
       <c r="B26">
-        <v>7.3738000000000001</v>
+        <v>7.1489000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>3276</v>
       </c>
       <c r="B27">
-        <v>7.3506999999999998</v>
+        <v>7.1292</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>3402</v>
       </c>
       <c r="B28">
-        <v>7.3288000000000002</v>
+        <v>7.1108000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>3528</v>
       </c>
       <c r="B29">
-        <v>7.3082000000000003</v>
+        <v>7.0936000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>3654</v>
       </c>
       <c r="B30">
-        <v>7.2887000000000004</v>
+        <v>7.0773999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>3780</v>
       </c>
       <c r="B31">
-        <v>7.2702</v>
+        <v>7.0621999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>3906</v>
       </c>
       <c r="B32">
-        <v>7.2527999999999997</v>
+        <v>7.0479000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>4032</v>
       </c>
       <c r="B33">
-        <v>7.2363</v>
+        <v>7.0345000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>4158</v>
       </c>
       <c r="B34">
-        <v>7.2206999999999999</v>
+        <v>7.0217999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>4284</v>
       </c>
       <c r="B35">
-        <v>7.2058999999999997</v>
+        <v>7.0098000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>4410</v>
       </c>
       <c r="B36">
-        <v>7.1919000000000004</v>
+        <v>6.9984999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>4536</v>
       </c>
       <c r="B37">
-        <v>7.1784999999999997</v>
+        <v>6.9878999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>4662</v>
       </c>
       <c r="B38">
-        <v>7.1658999999999997</v>
+        <v>6.9776999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>4788</v>
       </c>
       <c r="B39">
-        <v>7.1539000000000001</v>
+        <v>6.9680999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>4914</v>
       </c>
       <c r="B40">
-        <v>7.1424000000000003</v>
+        <v>6.9589999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>5040</v>
       </c>
       <c r="B41">
-        <v>7.1315</v>
+        <v>6.9503000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>5166</v>
       </c>
       <c r="B42">
-        <v>7.1211000000000002</v>
+        <v>6.9420999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>5292</v>
       </c>
       <c r="B43">
-        <v>7.1112000000000002</v>
+        <v>6.9341999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>5418</v>
       </c>
       <c r="B44">
-        <v>7.1017000000000001</v>
+        <v>6.9267000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>5544</v>
       </c>
       <c r="B45">
-        <v>7.0926999999999998</v>
+        <v>6.9195000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>5670</v>
       </c>
       <c r="B46">
-        <v>7.0839999999999996</v>
+        <v>6.9127000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>5796</v>
       </c>
       <c r="B47">
-        <v>7.0757000000000003</v>
+        <v>6.9061000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>5922</v>
       </c>
       <c r="B48">
-        <v>7.0678000000000001</v>
+        <v>6.8998999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>6048</v>
       </c>
       <c r="B49">
-        <v>7.0602</v>
+        <v>6.8939000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>6174</v>
       </c>
       <c r="B50">
-        <v>7.0529000000000002</v>
+        <v>6.8880999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>6300</v>
       </c>
       <c r="B51">
-        <v>7.0458999999999996</v>
+        <v>6.8826000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>6426</v>
       </c>
       <c r="B52">
-        <v>7.0391000000000004</v>
+        <v>6.8772000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>6552</v>
       </c>
       <c r="B53">
-        <v>7.0326000000000004</v>
+        <v>6.8720999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>6678</v>
       </c>
       <c r="B54">
-        <v>7.0263999999999998</v>
+        <v>6.8672000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>6804</v>
       </c>
       <c r="B55">
-        <v>7.0204000000000004</v>
+        <v>6.8624000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>6930</v>
       </c>
       <c r="B56">
-        <v>7.0145999999999997</v>
+        <v>6.8578999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>7056</v>
       </c>
       <c r="B57">
-        <v>7.0090000000000003</v>
+        <v>6.8535000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>7182</v>
       </c>
       <c r="B58">
-        <v>7.0035999999999996</v>
+        <v>6.8491999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>7308</v>
       </c>
       <c r="B59">
-        <v>6.9984000000000002</v>
+        <v>6.8451000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>7434</v>
       </c>
       <c r="B60">
-        <v>6.9932999999999996</v>
+        <v>6.8411</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>7560</v>
       </c>
       <c r="B61">
-        <v>6.9885000000000002</v>
+        <v>6.8372999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>7686</v>
       </c>
       <c r="B62">
-        <v>6.9837999999999996</v>
+        <v>6.8335999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>7812</v>
       </c>
       <c r="B63">
-        <v>6.9791999999999996</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>7938</v>
       </c>
       <c r="B64">
-        <v>6.9748000000000001</v>
+        <v>6.8265000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>8064</v>
       </c>
       <c r="B65">
-        <v>6.9705000000000004</v>
+        <v>6.8231999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>8190</v>
       </c>
       <c r="B66">
-        <v>6.9664000000000001</v>
+        <v>6.8198999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>8316</v>
       </c>
       <c r="B67">
-        <v>6.9623999999999997</v>
+        <v>6.8167999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>8442</v>
       </c>
       <c r="B68">
-        <v>6.9584999999999999</v>
+        <v>6.8136999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>8568</v>
       </c>
       <c r="B69">
-        <v>6.9546999999999999</v>
+        <v>6.8106999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E65804-AF3C-465B-955F-D71EA5EDF18B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2097C174-BF6C-4389-A0F0-26383885015F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +65,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,16 +382,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +916,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,660 +928,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>252</v>
       </c>
-      <c r="B3">
-        <v>9.3071000000000002</v>
-      </c>
-      <c r="C3">
-        <v>13.747</v>
-      </c>
-      <c r="D3">
-        <v>4.0617999999999999</v>
+      <c r="B3" s="2">
+        <v>9.2463999999999995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13.6572</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.0373999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>378</v>
       </c>
-      <c r="B4">
-        <v>8.5833999999999993</v>
-      </c>
-      <c r="C4">
-        <v>13.2417</v>
-      </c>
-      <c r="D4">
-        <v>4.29</v>
+      <c r="B4" s="2">
+        <v>8.5446000000000009</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13.1408</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.2343000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>504</v>
       </c>
-      <c r="B5">
-        <v>8.2175999999999991</v>
-      </c>
-      <c r="C5">
-        <v>12.994400000000001</v>
-      </c>
-      <c r="D5">
-        <v>4.4139999999999997</v>
+      <c r="B5" s="2">
+        <v>8.1941000000000006</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12.8794</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.3304</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>630</v>
       </c>
-      <c r="B6">
-        <v>8.0226000000000006</v>
-      </c>
-      <c r="C6">
-        <v>12.927300000000001</v>
-      </c>
-      <c r="D6">
-        <v>4.5404</v>
+      <c r="B6" s="2">
+        <v>8.0039999999999996</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.792999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.4340000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>756</v>
       </c>
-      <c r="B7">
-        <v>7.9077000000000002</v>
-      </c>
-      <c r="C7">
-        <v>12.9673</v>
-      </c>
-      <c r="D7">
-        <v>4.6887999999999996</v>
+      <c r="B7" s="2">
+        <v>7.8861999999999997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12.81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.5637999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>882</v>
       </c>
-      <c r="B8">
-        <v>7.8296000000000001</v>
-      </c>
-      <c r="C8">
-        <v>13.0632</v>
-      </c>
-      <c r="D8">
-        <v>4.8535000000000004</v>
+      <c r="B8" s="2">
+        <v>7.8009000000000004</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12.8813</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.7126999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
-      <c r="B9">
-        <v>7.7679999999999998</v>
-      </c>
-      <c r="C9">
-        <v>13.182700000000001</v>
-      </c>
-      <c r="D9">
-        <v>5.0244</v>
+      <c r="B9" s="2">
+        <v>7.7305999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.976599999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.8695000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1134</v>
       </c>
-      <c r="B10">
-        <v>7.7138</v>
-      </c>
-      <c r="C10">
-        <v>13.3065</v>
-      </c>
-      <c r="D10">
-        <v>5.1920999999999999</v>
+      <c r="B10" s="2">
+        <v>7.6677999999999997</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13.0776</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.0244999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1260</v>
       </c>
-      <c r="B11">
-        <v>7.6631999999999998</v>
-      </c>
-      <c r="C11">
-        <v>13.4237</v>
-      </c>
-      <c r="D11">
-        <v>5.3503999999999996</v>
+      <c r="B11" s="2">
+        <v>7.6096000000000004</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13.173999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.1708999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1386</v>
       </c>
-      <c r="B12">
-        <v>7.6147999999999998</v>
-      </c>
-      <c r="C12">
-        <v>13.527900000000001</v>
-      </c>
-      <c r="D12">
-        <v>5.4946000000000002</v>
+      <c r="B12" s="2">
+        <v>7.5551000000000004</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13.2599</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.3040000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1512</v>
       </c>
-      <c r="B13">
-        <v>7.5682</v>
-      </c>
-      <c r="C13">
-        <v>13.616199999999999</v>
-      </c>
-      <c r="D13">
-        <v>5.6223999999999998</v>
+      <c r="B13" s="2">
+        <v>7.5039999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.3324</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.4215</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1638</v>
       </c>
-      <c r="B14">
-        <v>7.5235000000000003</v>
-      </c>
-      <c r="C14">
-        <v>13.6873</v>
-      </c>
-      <c r="D14">
-        <v>5.7324999999999999</v>
+      <c r="B14" s="2">
+        <v>7.4561000000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.3902</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.5223000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1764</v>
       </c>
-      <c r="B15">
-        <v>7.4806999999999997</v>
-      </c>
-      <c r="C15">
-        <v>13.741099999999999</v>
-      </c>
-      <c r="D15">
-        <v>5.8246000000000002</v>
+      <c r="B15" s="2">
+        <v>7.4114000000000004</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13.433</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.6060999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1890</v>
       </c>
-      <c r="B16">
-        <v>7.4401000000000002</v>
-      </c>
-      <c r="C16">
-        <v>13.778</v>
-      </c>
-      <c r="D16">
-        <v>5.899</v>
+      <c r="B16" s="2">
+        <v>7.37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>13.461399999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.6731999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2016</v>
       </c>
-      <c r="B17">
-        <v>7.4017999999999997</v>
-      </c>
-      <c r="C17">
-        <v>13.799099999999999</v>
-      </c>
-      <c r="D17">
-        <v>5.9564000000000004</v>
+      <c r="B17" s="2">
+        <v>7.3315999999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13.476000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.7245999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2142</v>
       </c>
-      <c r="B18">
-        <v>7.3655999999999997</v>
-      </c>
-      <c r="C18">
-        <v>13.805300000000001</v>
-      </c>
-      <c r="D18">
-        <v>5.9978999999999996</v>
+      <c r="B18" s="2">
+        <v>7.2961</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13.4778</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.7613000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2268</v>
       </c>
-      <c r="B19">
-        <v>7.3316999999999997</v>
-      </c>
-      <c r="C19">
-        <v>13.798</v>
-      </c>
-      <c r="D19">
-        <v>6.0244999999999997</v>
+      <c r="B19" s="2">
+        <v>7.2633000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>13.4679</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.7843999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2394</v>
       </c>
-      <c r="B20">
-        <v>7.3</v>
-      </c>
+      <c r="B20" s="2">
+        <v>7.2331000000000003</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2520</v>
       </c>
-      <c r="B21">
-        <v>7.2702999999999998</v>
-      </c>
+      <c r="B21" s="2">
+        <v>7.2051999999999996</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2646</v>
       </c>
-      <c r="B22">
-        <v>7.2426000000000004</v>
-      </c>
+      <c r="B22" s="2">
+        <v>7.1795</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2772</v>
       </c>
-      <c r="B23">
-        <v>7.2167000000000003</v>
-      </c>
+      <c r="B23" s="2">
+        <v>7.1557000000000004</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2898</v>
       </c>
-      <c r="B24">
-        <v>7.1925999999999997</v>
-      </c>
+      <c r="B24" s="2">
+        <v>7.1337000000000002</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3024</v>
       </c>
-      <c r="B25">
-        <v>7.17</v>
-      </c>
+      <c r="B25" s="2">
+        <v>7.1132999999999997</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3150</v>
       </c>
-      <c r="B26">
-        <v>7.1489000000000003</v>
-      </c>
+      <c r="B26" s="2">
+        <v>7.0944000000000003</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3276</v>
       </c>
-      <c r="B27">
-        <v>7.1292</v>
-      </c>
+      <c r="B27" s="2">
+        <v>7.0769000000000002</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3402</v>
       </c>
-      <c r="B28">
-        <v>7.1108000000000002</v>
-      </c>
+      <c r="B28" s="2">
+        <v>7.0605000000000002</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3528</v>
       </c>
-      <c r="B29">
-        <v>7.0936000000000003</v>
-      </c>
+      <c r="B29" s="2">
+        <v>7.0452000000000004</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3654</v>
       </c>
-      <c r="B30">
-        <v>7.0773999999999999</v>
-      </c>
+      <c r="B30" s="2">
+        <v>7.0309999999999997</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3780</v>
       </c>
-      <c r="B31">
-        <v>7.0621999999999998</v>
-      </c>
+      <c r="B31" s="2">
+        <v>7.0176999999999996</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3906</v>
       </c>
-      <c r="B32">
-        <v>7.0479000000000003</v>
-      </c>
+      <c r="B32" s="2">
+        <v>7.0052000000000003</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4032</v>
       </c>
-      <c r="B33">
-        <v>7.0345000000000004</v>
+      <c r="B33" s="2">
+        <v>6.9934000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4158</v>
       </c>
-      <c r="B34">
-        <v>7.0217999999999998</v>
+      <c r="B34" s="2">
+        <v>6.9824000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4284</v>
       </c>
-      <c r="B35">
-        <v>7.0098000000000003</v>
+      <c r="B35" s="2">
+        <v>6.9720000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4410</v>
       </c>
-      <c r="B36">
-        <v>6.9984999999999999</v>
+      <c r="B36" s="2">
+        <v>6.9621000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4536</v>
       </c>
-      <c r="B37">
-        <v>6.9878999999999998</v>
+      <c r="B37" s="2">
+        <v>6.9528999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4662</v>
       </c>
-      <c r="B38">
-        <v>6.9776999999999996</v>
+      <c r="B38" s="2">
+        <v>6.9440999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4788</v>
       </c>
-      <c r="B39">
-        <v>6.9680999999999997</v>
+      <c r="B39" s="2">
+        <v>6.9358000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4914</v>
       </c>
-      <c r="B40">
-        <v>6.9589999999999996</v>
+      <c r="B40" s="2">
+        <v>6.9279000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5040</v>
       </c>
-      <c r="B41">
-        <v>6.9503000000000004</v>
+      <c r="B41" s="2">
+        <v>6.9203999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5166</v>
       </c>
-      <c r="B42">
-        <v>6.9420999999999999</v>
+      <c r="B42" s="2">
+        <v>6.9131999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5292</v>
       </c>
-      <c r="B43">
-        <v>6.9341999999999997</v>
+      <c r="B43" s="2">
+        <v>6.9063999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5418</v>
       </c>
-      <c r="B44">
-        <v>6.9267000000000003</v>
+      <c r="B44" s="2">
+        <v>6.8998999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5544</v>
       </c>
-      <c r="B45">
-        <v>6.9195000000000002</v>
+      <c r="B45" s="2">
+        <v>6.8936999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5670</v>
       </c>
-      <c r="B46">
-        <v>6.9127000000000001</v>
+      <c r="B46" s="2">
+        <v>6.8878000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5796</v>
       </c>
-      <c r="B47">
-        <v>6.9061000000000003</v>
+      <c r="B47" s="2">
+        <v>6.8822000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5922</v>
       </c>
-      <c r="B48">
-        <v>6.8998999999999997</v>
+      <c r="B48" s="2">
+        <v>6.8766999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6048</v>
       </c>
-      <c r="B49">
-        <v>6.8939000000000004</v>
+      <c r="B49" s="2">
+        <v>6.8715000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6174</v>
       </c>
-      <c r="B50">
-        <v>6.8880999999999997</v>
+      <c r="B50" s="2">
+        <v>6.8666</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6300</v>
       </c>
-      <c r="B51">
-        <v>6.8826000000000001</v>
+      <c r="B51" s="2">
+        <v>6.8617999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6426</v>
       </c>
-      <c r="B52">
-        <v>6.8772000000000002</v>
+      <c r="B52" s="2">
+        <v>6.8571999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6552</v>
       </c>
-      <c r="B53">
-        <v>6.8720999999999997</v>
+      <c r="B53" s="2">
+        <v>6.8528000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6678</v>
       </c>
-      <c r="B54">
-        <v>6.8672000000000004</v>
+      <c r="B54" s="2">
+        <v>6.8484999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6804</v>
       </c>
-      <c r="B55">
-        <v>6.8624000000000001</v>
+      <c r="B55" s="2">
+        <v>6.8444000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>6930</v>
       </c>
-      <c r="B56">
-        <v>6.8578999999999999</v>
+      <c r="B56" s="2">
+        <v>6.8404999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7056</v>
       </c>
-      <c r="B57">
-        <v>6.8535000000000004</v>
+      <c r="B57" s="2">
+        <v>6.8367000000000004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7182</v>
       </c>
-      <c r="B58">
-        <v>6.8491999999999997</v>
+      <c r="B58" s="2">
+        <v>6.8330000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7308</v>
       </c>
-      <c r="B59">
-        <v>6.8451000000000004</v>
+      <c r="B59" s="2">
+        <v>6.8295000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7434</v>
       </c>
-      <c r="B60">
-        <v>6.8411</v>
+      <c r="B60" s="2">
+        <v>6.8259999999999996</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7560</v>
       </c>
-      <c r="B61">
-        <v>6.8372999999999999</v>
+      <c r="B61" s="2">
+        <v>6.8227000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>7686</v>
       </c>
-      <c r="B62">
-        <v>6.8335999999999997</v>
+      <c r="B62" s="2">
+        <v>6.8194999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>7812</v>
       </c>
-      <c r="B63">
-        <v>6.83</v>
+      <c r="B63" s="2">
+        <v>6.8163999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>7938</v>
       </c>
-      <c r="B64">
-        <v>6.8265000000000002</v>
+      <c r="B64" s="2">
+        <v>6.8133999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>8064</v>
       </c>
-      <c r="B65">
-        <v>6.8231999999999999</v>
+      <c r="B65" s="2">
+        <v>6.8105000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>8190</v>
       </c>
-      <c r="B66">
-        <v>6.8198999999999996</v>
+      <c r="B66" s="2">
+        <v>6.8076999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>8316</v>
       </c>
-      <c r="B67">
-        <v>6.8167999999999997</v>
+      <c r="B67" s="2">
+        <v>6.8049999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>8442</v>
       </c>
-      <c r="B68">
-        <v>6.8136999999999999</v>
+      <c r="B68" s="2">
+        <v>6.8022999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>8568</v>
       </c>
-      <c r="B69">
-        <v>6.8106999999999998</v>
+      <c r="B69" s="2">
+        <v>6.7998000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2097C174-BF6C-4389-A0F0-26383885015F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB1BD1F-F37F-4998-A6DF-65BAB30C64DB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +373,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -489,6 +495,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -534,10 +592,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -594,6 +671,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,704 +997,781 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>252</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.2463999999999995</v>
-      </c>
-      <c r="C3" s="2">
-        <v>13.6572</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4.0373999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B3" s="5">
+        <v>9.3183000000000007</v>
+      </c>
+      <c r="C3" s="5">
+        <v>13.7591</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.0621999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>378</v>
       </c>
-      <c r="B4" s="2">
-        <v>8.5446000000000009</v>
-      </c>
-      <c r="C4" s="2">
-        <v>13.1408</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.2343000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B4" s="5">
+        <v>8.6128999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.3513</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.3625999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>504</v>
       </c>
-      <c r="B5" s="2">
-        <v>8.1941000000000006</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12.8794</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.3304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B5" s="5">
+        <v>8.3003999999999998</v>
+      </c>
+      <c r="C5" s="5">
+        <v>13.188700000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.5136000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>630</v>
       </c>
-      <c r="B6" s="2">
-        <v>8.0039999999999996</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12.792999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4.4340000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="5">
+        <v>8.1452000000000009</v>
+      </c>
+      <c r="C6" s="5">
+        <v>13.1738</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.6497999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>756</v>
       </c>
-      <c r="B7" s="2">
-        <v>7.8861999999999997</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12.81</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.5637999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B7" s="5">
+        <v>8.0494000000000003</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13.2346</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.7988999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>882</v>
       </c>
-      <c r="B8" s="2">
-        <v>7.8009000000000004</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12.8813</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4.7126999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="B8" s="5">
+        <v>7.9743000000000004</v>
+      </c>
+      <c r="C8" s="5">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.9583000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1008</v>
       </c>
-      <c r="B9" s="2">
-        <v>7.7305999999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12.976599999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.8695000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="B9" s="5">
+        <v>7.9058999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>13.43</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5.1193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>1134</v>
       </c>
-      <c r="B10" s="2">
-        <v>7.6677999999999997</v>
-      </c>
-      <c r="C10" s="2">
-        <v>13.0776</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5.0244999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="B10" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="C10" s="5">
+        <v>13.5276</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5.2740999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>1260</v>
       </c>
-      <c r="B11" s="2">
-        <v>7.6096000000000004</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13.173999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.1708999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="B11" s="5">
+        <v>7.7762000000000002</v>
+      </c>
+      <c r="C11" s="5">
+        <v>13.614100000000001</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.4165999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>1386</v>
       </c>
-      <c r="B12" s="2">
-        <v>7.5551000000000004</v>
-      </c>
-      <c r="C12" s="2">
-        <v>13.2599</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5.3040000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B12" s="5">
+        <v>7.7149000000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13.6866</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5.5438999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>1512</v>
       </c>
-      <c r="B13" s="2">
-        <v>7.5039999999999996</v>
-      </c>
-      <c r="C13" s="2">
-        <v>13.3324</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5.4215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B13" s="5">
+        <v>7.6567999999999996</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13.7437</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5.6539000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>1638</v>
       </c>
-      <c r="B14" s="2">
-        <v>7.4561000000000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13.3902</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.5223000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B14" s="5">
+        <v>7.6022999999999996</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13.785600000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.7464000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>1764</v>
       </c>
-      <c r="B15" s="2">
-        <v>7.4114000000000004</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13.433</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.6060999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="B15" s="5">
+        <v>7.5515999999999996</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13.8127</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5.8213999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>1890</v>
       </c>
-      <c r="B16" s="2">
-        <v>7.37</v>
-      </c>
-      <c r="C16" s="2">
-        <v>13.461399999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.6731999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="B16" s="5">
+        <v>7.5048000000000004</v>
+      </c>
+      <c r="C16" s="5">
+        <v>13.8262</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5.8800999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>2016</v>
       </c>
-      <c r="B17" s="2">
-        <v>7.3315999999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>13.476000000000001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.7245999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="B17" s="5">
+        <v>7.4618000000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>13.8271</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.9233000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>2142</v>
       </c>
-      <c r="B18" s="2">
-        <v>7.2961</v>
-      </c>
-      <c r="C18" s="2">
-        <v>13.4778</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5.7613000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B18" s="5">
+        <v>7.4222999999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>13.816599999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5.9523999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>2268</v>
       </c>
-      <c r="B19" s="2">
-        <v>7.2633000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13.4679</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5.7843999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="B19" s="5">
+        <v>7.3860000000000001</v>
+      </c>
+      <c r="C19" s="5">
+        <v>13.7959</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5.9690000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>2394</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.2331000000000003</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="B20" s="5">
+        <v>7.3528000000000002</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>2520</v>
       </c>
-      <c r="B21" s="2">
-        <v>7.2051999999999996</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="B21" s="5">
+        <v>7.3224</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>2646</v>
       </c>
-      <c r="B22" s="2">
-        <v>7.1795</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B22" s="5">
+        <v>7.2944000000000004</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>2772</v>
       </c>
-      <c r="B23" s="2">
-        <v>7.1557000000000004</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B23" s="5">
+        <v>7.2686999999999999</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>2898</v>
       </c>
-      <c r="B24" s="2">
-        <v>7.1337000000000002</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="B24" s="5">
+        <v>7.2450000000000001</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>3024</v>
       </c>
-      <c r="B25" s="2">
-        <v>7.1132999999999997</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="B25" s="5">
+        <v>7.2232000000000003</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>3150</v>
       </c>
-      <c r="B26" s="2">
-        <v>7.0944000000000003</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="B26" s="5">
+        <v>7.2030000000000003</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>3276</v>
       </c>
-      <c r="B27" s="2">
-        <v>7.0769000000000002</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="B27" s="5">
+        <v>7.1841999999999997</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>3402</v>
       </c>
-      <c r="B28" s="2">
-        <v>7.0605000000000002</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="B28" s="5">
+        <v>7.1668000000000003</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>3528</v>
       </c>
-      <c r="B29" s="2">
-        <v>7.0452000000000004</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="B29" s="5">
+        <v>7.1505999999999998</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>3654</v>
       </c>
-      <c r="B30" s="2">
-        <v>7.0309999999999997</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="B30" s="5">
+        <v>7.1355000000000004</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>3780</v>
       </c>
-      <c r="B31" s="2">
-        <v>7.0176999999999996</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="B31" s="5">
+        <v>7.1214000000000004</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>3906</v>
       </c>
-      <c r="B32" s="2">
-        <v>7.0052000000000003</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="B32" s="5">
+        <v>7.1082000000000001</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>4032</v>
       </c>
-      <c r="B33" s="2">
-        <v>6.9934000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B33" s="5">
+        <v>7.0957999999999997</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>4158</v>
       </c>
-      <c r="B34" s="2">
-        <v>6.9824000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="B34" s="5">
+        <v>7.0841000000000003</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>4284</v>
       </c>
-      <c r="B35" s="2">
-        <v>6.9720000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="B35" s="5">
+        <v>7.0731000000000002</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>4410</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
+        <v>7.0628000000000002</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>4536</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.0529999999999999</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>4662</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.0437000000000003</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>4788</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4914</v>
+      </c>
+      <c r="B40" s="5">
+        <v>7.0266999999999999</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5040</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7.0187999999999997</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>5166</v>
+      </c>
+      <c r="B42" s="5">
+        <v>7.0111999999999997</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>5292</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.0041000000000002</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>5418</v>
+      </c>
+      <c r="B44" s="5">
+        <v>6.9972000000000003</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>5544</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6.9907000000000004</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>5670</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6.9844999999999997</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>5796</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.9785000000000004</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>5922</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6.9728000000000003</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>6048</v>
+      </c>
+      <c r="B49" s="5">
+        <v>6.9673999999999996</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>6174</v>
+      </c>
+      <c r="B50" s="5">
         <v>6.9621000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>4536</v>
-      </c>
-      <c r="B37" s="2">
-        <v>6.9528999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>4662</v>
-      </c>
-      <c r="B38" s="2">
-        <v>6.9440999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>4788</v>
-      </c>
-      <c r="B39" s="2">
-        <v>6.9358000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>4914</v>
-      </c>
-      <c r="B40" s="2">
-        <v>6.9279000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>5040</v>
-      </c>
-      <c r="B41" s="2">
-        <v>6.9203999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>5166</v>
-      </c>
-      <c r="B42" s="2">
-        <v>6.9131999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>5292</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6.9063999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>5418</v>
-      </c>
-      <c r="B44" s="2">
-        <v>6.8998999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>5544</v>
-      </c>
-      <c r="B45" s="2">
-        <v>6.8936999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>5670</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6.8878000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>5796</v>
-      </c>
-      <c r="B47" s="2">
-        <v>6.8822000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>5922</v>
-      </c>
-      <c r="B48" s="2">
-        <v>6.8766999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>6048</v>
-      </c>
-      <c r="B49" s="2">
-        <v>6.8715000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>6174</v>
-      </c>
-      <c r="B50" s="2">
-        <v>6.8666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>6300</v>
       </c>
-      <c r="B51" s="2">
-        <v>6.8617999999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="B51" s="5">
+        <v>6.9570999999999996</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>6426</v>
       </c>
-      <c r="B52" s="2">
-        <v>6.8571999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="B52" s="5">
+        <v>6.9523000000000001</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>6552</v>
       </c>
-      <c r="B53" s="2">
-        <v>6.8528000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="B53" s="5">
+        <v>6.9476000000000004</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>6678</v>
       </c>
-      <c r="B54" s="2">
-        <v>6.8484999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="B54" s="5">
+        <v>6.9431000000000003</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>6804</v>
       </c>
-      <c r="B55" s="2">
-        <v>6.8444000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="B55" s="5">
+        <v>6.9387999999999996</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>6930</v>
       </c>
-      <c r="B56" s="2">
-        <v>6.8404999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="B56" s="5">
+        <v>6.9347000000000003</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>7056</v>
       </c>
-      <c r="B57" s="2">
-        <v>6.8367000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="B57" s="5">
+        <v>6.9306999999999999</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>7182</v>
       </c>
-      <c r="B58" s="2">
-        <v>6.8330000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="B58" s="5">
+        <v>6.9268000000000001</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>7308</v>
       </c>
-      <c r="B59" s="2">
-        <v>6.8295000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="B59" s="5">
+        <v>6.9230999999999998</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>7434</v>
       </c>
-      <c r="B60" s="2">
-        <v>6.8259999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="B60" s="5">
+        <v>6.9195000000000002</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>7560</v>
       </c>
-      <c r="B61" s="2">
-        <v>6.8227000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="B61" s="5">
+        <v>6.9160000000000004</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>7686</v>
       </c>
-      <c r="B62" s="2">
-        <v>6.8194999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="B62" s="5">
+        <v>6.9126000000000003</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>7812</v>
       </c>
-      <c r="B63" s="2">
-        <v>6.8163999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="B63" s="5">
+        <v>6.9093</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
         <v>7938</v>
       </c>
-      <c r="B64" s="2">
-        <v>6.8133999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="B64" s="5">
+        <v>6.9062000000000001</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>8064</v>
       </c>
-      <c r="B65" s="2">
-        <v>6.8105000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="B65" s="5">
+        <v>6.9031000000000002</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
         <v>8190</v>
       </c>
-      <c r="B66" s="2">
-        <v>6.8076999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="B66" s="5">
+        <v>6.9001999999999999</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>8316</v>
       </c>
-      <c r="B67" s="2">
-        <v>6.8049999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="B67" s="5">
+        <v>6.8973000000000004</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
         <v>8442</v>
       </c>
-      <c r="B68" s="2">
-        <v>6.8022999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="B68" s="5">
+        <v>6.8944999999999999</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>8568</v>
       </c>
-      <c r="B69" s="2">
-        <v>6.7998000000000003</v>
-      </c>
+      <c r="B69" s="5">
+        <v>6.8917999999999999</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB1BD1F-F37F-4998-A6DF-65BAB30C64DB}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D504FD72-5AEF-48CA-B719-AF3539005B83}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,26 +38,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>ETTJ Inflação Implicita (IPCA)</t>
-  </si>
-  <si>
-    <t>Vertices</t>
-  </si>
-  <si>
     <t>ETTJ IPCA</t>
   </si>
   <si>
-    <t>ETTJ PREF</t>
+    <t>Inflação Implícita</t>
   </si>
   <si>
-    <t>Inflação Implícita</t>
+    <t>ETTJ / Inflação Implicita (IPCA) (%a.a./252)</t>
+  </si>
+  <si>
+    <t>Vértices</t>
+  </si>
+  <si>
+    <t>ETTJ PRE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -375,7 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,28 +605,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -994,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73769D5-310E-423E-88E6-071D09451E79}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,769 +1022,771 @@
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>252</v>
       </c>
-      <c r="B3" s="5">
-        <v>9.3183000000000007</v>
-      </c>
-      <c r="C3" s="5">
-        <v>13.7591</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.0621999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B4" s="4">
+        <v>9.2162000000000006</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13.652900000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.0622999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>378</v>
       </c>
-      <c r="B4" s="5">
-        <v>8.6128999999999998</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13.3513</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4.3625999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B5" s="4">
+        <v>8.4989000000000008</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13.2121</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>504</v>
       </c>
-      <c r="B5" s="5">
-        <v>8.3003999999999998</v>
-      </c>
-      <c r="C5" s="5">
-        <v>13.188700000000001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4.5136000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B6" s="4">
+        <v>8.1846999999999994</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13.0387</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.4866999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>630</v>
       </c>
-      <c r="B6" s="5">
-        <v>8.1452000000000009</v>
-      </c>
-      <c r="C6" s="5">
-        <v>13.1738</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4.6497999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="B7" s="4">
+        <v>8.0320999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13.024800000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.6214000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>756</v>
       </c>
-      <c r="B7" s="5">
-        <v>8.0494000000000003</v>
-      </c>
-      <c r="C7" s="5">
-        <v>13.2346</v>
-      </c>
-      <c r="D7" s="5">
-        <v>4.7988999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B8" s="4">
+        <v>7.94</v>
+      </c>
+      <c r="C8" s="4">
+        <v>13.091699999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.7727000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>882</v>
       </c>
-      <c r="B8" s="5">
-        <v>7.9743000000000004</v>
-      </c>
-      <c r="C8" s="5">
-        <v>13.327999999999999</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4.9583000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="B9" s="4">
+        <v>7.8685</v>
+      </c>
+      <c r="C9" s="4">
+        <v>13.1927</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.9358000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1008</v>
       </c>
-      <c r="B9" s="5">
-        <v>7.9058999999999999</v>
-      </c>
-      <c r="C9" s="5">
-        <v>13.43</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5.1193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="B10" s="4">
+        <v>7.8032000000000004</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13.302</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.1006999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>1134</v>
       </c>
-      <c r="B10" s="5">
-        <v>7.84</v>
-      </c>
-      <c r="C10" s="5">
-        <v>13.5276</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5.2740999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="B11" s="4">
+        <v>7.7397999999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>13.405900000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.2590000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>1260</v>
       </c>
-      <c r="B11" s="5">
-        <v>7.7762000000000002</v>
-      </c>
-      <c r="C11" s="5">
-        <v>13.614100000000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5.4165999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="B12" s="4">
+        <v>7.6780999999999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13.497199999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.4040999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>1386</v>
       </c>
-      <c r="B12" s="5">
-        <v>7.7149000000000001</v>
-      </c>
-      <c r="C12" s="5">
-        <v>13.6866</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5.5438999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="B13" s="4">
+        <v>7.6185</v>
+      </c>
+      <c r="C13" s="4">
+        <v>13.572800000000001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.5327000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>1512</v>
       </c>
-      <c r="B13" s="5">
-        <v>7.6567999999999996</v>
-      </c>
-      <c r="C13" s="5">
-        <v>13.7437</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5.6539000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="B14" s="4">
+        <v>7.5618999999999996</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13.631600000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.6429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>1638</v>
       </c>
-      <c r="B14" s="5">
-        <v>7.6022999999999996</v>
-      </c>
-      <c r="C14" s="5">
-        <v>13.785600000000001</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5.7464000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="B15" s="4">
+        <v>7.5086000000000004</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.6737</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5.7344999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>1764</v>
       </c>
-      <c r="B15" s="5">
-        <v>7.5515999999999996</v>
-      </c>
-      <c r="C15" s="5">
-        <v>13.8127</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5.8213999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="B16" s="4">
+        <v>7.4591000000000003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13.6997</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.8074000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>1890</v>
       </c>
-      <c r="B16" s="5">
-        <v>7.5048000000000004</v>
-      </c>
-      <c r="C16" s="5">
-        <v>13.8262</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5.8800999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="B17" s="4">
+        <v>7.4132999999999996</v>
+      </c>
+      <c r="C17" s="4">
+        <v>13.711</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.8630000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>2016</v>
       </c>
-      <c r="B17" s="5">
-        <v>7.4618000000000002</v>
-      </c>
-      <c r="C17" s="5">
-        <v>13.8271</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5.9233000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="B18" s="4">
+        <v>7.3712</v>
+      </c>
+      <c r="C18" s="4">
+        <v>13.708600000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.9023000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2142</v>
       </c>
-      <c r="B18" s="5">
-        <v>7.4222999999999999</v>
-      </c>
-      <c r="C18" s="5">
-        <v>13.816599999999999</v>
-      </c>
-      <c r="D18" s="5">
-        <v>5.9523999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="B19" s="4">
+        <v>7.3324999999999996</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.694000000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5.9268999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>2268</v>
       </c>
-      <c r="B19" s="5">
-        <v>7.3860000000000001</v>
-      </c>
-      <c r="C19" s="5">
-        <v>13.7959</v>
-      </c>
-      <c r="D19" s="5">
-        <v>5.9690000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="B20" s="4">
+        <v>7.2971000000000004</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>2394</v>
       </c>
-      <c r="B20" s="5">
-        <v>7.3528000000000002</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="B21" s="4">
+        <v>7.2645999999999997</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>2520</v>
       </c>
-      <c r="B21" s="5">
-        <v>7.3224</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="B22" s="4">
+        <v>7.2348999999999997</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>2646</v>
       </c>
-      <c r="B22" s="5">
-        <v>7.2944000000000004</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="B23" s="4">
+        <v>7.2076000000000002</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>2772</v>
       </c>
-      <c r="B23" s="5">
-        <v>7.2686999999999999</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="B24" s="4">
+        <v>7.1825000000000001</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>2898</v>
       </c>
-      <c r="B24" s="5">
-        <v>7.2450000000000001</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="B25" s="4">
+        <v>7.1593</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>3024</v>
       </c>
-      <c r="B25" s="5">
-        <v>7.2232000000000003</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="B26" s="4">
+        <v>7.1379999999999999</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>3150</v>
       </c>
-      <c r="B26" s="5">
-        <v>7.2030000000000003</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="B27" s="4">
+        <v>7.1182999999999996</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>3276</v>
       </c>
-      <c r="B27" s="5">
-        <v>7.1841999999999997</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="B28" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>3402</v>
       </c>
-      <c r="B28" s="5">
-        <v>7.1668000000000003</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="B29" s="4">
+        <v>7.0830000000000002</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>3528</v>
       </c>
-      <c r="B29" s="5">
-        <v>7.1505999999999998</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="B30" s="4">
+        <v>7.0671999999999997</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>3654</v>
       </c>
-      <c r="B30" s="5">
-        <v>7.1355000000000004</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="B31" s="4">
+        <v>7.0525000000000002</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>3780</v>
       </c>
-      <c r="B31" s="5">
-        <v>7.1214000000000004</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="B32" s="4">
+        <v>7.0387000000000004</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>3906</v>
       </c>
-      <c r="B32" s="5">
-        <v>7.1082000000000001</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="B33" s="4">
+        <v>7.0259</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>4032</v>
       </c>
-      <c r="B33" s="5">
-        <v>7.0957999999999997</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="B34" s="4">
+        <v>7.0137999999999998</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>4158</v>
       </c>
-      <c r="B34" s="5">
-        <v>7.0841000000000003</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="B35" s="4">
+        <v>7.0023999999999997</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>4284</v>
       </c>
-      <c r="B35" s="5">
-        <v>7.0731000000000002</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="B36" s="4">
+        <v>6.9916999999999998</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>4410</v>
       </c>
-      <c r="B36" s="5">
-        <v>7.0628000000000002</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="B37" s="4">
+        <v>6.9816000000000003</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>4536</v>
       </c>
-      <c r="B37" s="5">
-        <v>7.0529999999999999</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="B38" s="4">
+        <v>6.9721000000000002</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>4662</v>
       </c>
-      <c r="B38" s="5">
-        <v>7.0437000000000003</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="B39" s="4">
+        <v>6.9630999999999998</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>4788</v>
       </c>
-      <c r="B39" s="5">
-        <v>7.0350000000000001</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="B40" s="4">
+        <v>6.9545000000000003</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>4914</v>
       </c>
-      <c r="B40" s="5">
-        <v>7.0266999999999999</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="B41" s="4">
+        <v>6.9463999999999997</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>5040</v>
       </c>
-      <c r="B41" s="5">
-        <v>7.0187999999999997</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="B42" s="4">
+        <v>6.9386999999999999</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>5166</v>
       </c>
-      <c r="B42" s="5">
-        <v>7.0111999999999997</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="B43" s="4">
+        <v>6.9314</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>5292</v>
       </c>
-      <c r="B43" s="5">
-        <v>7.0041000000000002</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="B44" s="4">
+        <v>6.9244000000000003</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>5418</v>
       </c>
-      <c r="B44" s="5">
-        <v>6.9972000000000003</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="B45" s="4">
+        <v>6.9177</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>5544</v>
       </c>
-      <c r="B45" s="5">
-        <v>6.9907000000000004</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="B46" s="4">
+        <v>6.9114000000000004</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>5670</v>
       </c>
-      <c r="B46" s="5">
-        <v>6.9844999999999997</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="B47" s="4">
+        <v>6.9053000000000004</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>5796</v>
       </c>
-      <c r="B47" s="5">
-        <v>6.9785000000000004</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="B48" s="4">
+        <v>6.8994999999999997</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>5922</v>
       </c>
-      <c r="B48" s="5">
-        <v>6.9728000000000003</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="B49" s="4">
+        <v>6.8939000000000004</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>6048</v>
       </c>
-      <c r="B49" s="5">
-        <v>6.9673999999999996</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="B50" s="4">
+        <v>6.8886000000000003</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>6174</v>
       </c>
-      <c r="B50" s="5">
-        <v>6.9621000000000004</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="B51" s="4">
+        <v>6.8834999999999997</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>6300</v>
       </c>
-      <c r="B51" s="5">
-        <v>6.9570999999999996</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="B52" s="4">
+        <v>6.8785999999999996</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>6426</v>
       </c>
-      <c r="B52" s="5">
-        <v>6.9523000000000001</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="B53" s="4">
+        <v>6.8738999999999999</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>6552</v>
       </c>
-      <c r="B53" s="5">
-        <v>6.9476000000000004</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="B54" s="4">
+        <v>6.8693</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>6678</v>
       </c>
-      <c r="B54" s="5">
-        <v>6.9431000000000003</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="B55" s="4">
+        <v>6.8650000000000002</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>6804</v>
       </c>
-      <c r="B55" s="5">
-        <v>6.9387999999999996</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="B56" s="4">
+        <v>6.8608000000000002</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>6930</v>
       </c>
-      <c r="B56" s="5">
-        <v>6.9347000000000003</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="B57" s="4">
+        <v>6.8567</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>7056</v>
       </c>
-      <c r="B57" s="5">
-        <v>6.9306999999999999</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="B58" s="4">
+        <v>6.8528000000000002</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>7182</v>
       </c>
-      <c r="B58" s="5">
-        <v>6.9268000000000001</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="B59" s="4">
+        <v>6.8491</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>7308</v>
       </c>
-      <c r="B59" s="5">
-        <v>6.9230999999999998</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="B60" s="4">
+        <v>6.8453999999999997</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>7434</v>
       </c>
-      <c r="B60" s="5">
-        <v>6.9195000000000002</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="B61" s="4">
+        <v>6.8418999999999999</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>7560</v>
       </c>
-      <c r="B61" s="5">
-        <v>6.9160000000000004</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="B62" s="4">
+        <v>6.8384999999999998</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>7686</v>
       </c>
-      <c r="B62" s="5">
-        <v>6.9126000000000003</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="B63" s="4">
+        <v>6.8352000000000004</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>7812</v>
       </c>
-      <c r="B63" s="5">
-        <v>6.9093</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="B64" s="4">
+        <v>6.8320999999999996</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>7938</v>
       </c>
-      <c r="B64" s="5">
-        <v>6.9062000000000001</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="B65" s="4">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>8064</v>
       </c>
-      <c r="B65" s="5">
-        <v>6.9031000000000002</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="B66" s="4">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>8190</v>
       </c>
-      <c r="B66" s="5">
-        <v>6.9001999999999999</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="B67" s="4">
+        <v>6.8231000000000002</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>8316</v>
       </c>
-      <c r="B67" s="5">
-        <v>6.8973000000000004</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="B68" s="4">
+        <v>6.8202999999999996</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>8442</v>
       </c>
-      <c r="B68" s="5">
-        <v>6.8944999999999999</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="B69" s="4">
+        <v>6.8175999999999997</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>8568</v>
       </c>
-      <c r="B69" s="5">
-        <v>6.8917999999999999</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="B70" s="4">
+        <v>6.8150000000000004</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D504FD72-5AEF-48CA-B719-AF3539005B83}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910E55E0-CC5B-4E8C-94C1-3F28E18AD55F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1055,13 +1055,13 @@
         <v>252</v>
       </c>
       <c r="B4" s="4">
-        <v>9.2162000000000006</v>
+        <v>9.1256000000000004</v>
       </c>
       <c r="C4" s="4">
-        <v>13.652900000000001</v>
+        <v>13.664899999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>4.0622999999999996</v>
+        <v>4.1597</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,13 +1069,13 @@
         <v>378</v>
       </c>
       <c r="B5" s="4">
-        <v>8.4989000000000008</v>
+        <v>8.4857999999999993</v>
       </c>
       <c r="C5" s="4">
-        <v>13.2121</v>
+        <v>13.3278</v>
       </c>
       <c r="D5" s="4">
-        <v>4.3440000000000003</v>
+        <v>4.4631999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,13 +1083,13 @@
         <v>504</v>
       </c>
       <c r="B6" s="4">
-        <v>8.1846999999999994</v>
+        <v>8.1961999999999993</v>
       </c>
       <c r="C6" s="4">
-        <v>13.0387</v>
+        <v>13.2188</v>
       </c>
       <c r="D6" s="4">
-        <v>4.4866999999999999</v>
+        <v>4.6421000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1097,13 @@
         <v>630</v>
       </c>
       <c r="B7" s="4">
-        <v>8.0320999999999998</v>
+        <v>8.0726999999999993</v>
       </c>
       <c r="C7" s="4">
-        <v>13.024800000000001</v>
+        <v>13.2354</v>
       </c>
       <c r="D7" s="4">
-        <v>4.6214000000000004</v>
+        <v>4.7770000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1111,13 @@
         <v>756</v>
       </c>
       <c r="B8" s="4">
-        <v>7.94</v>
+        <v>8.0228000000000002</v>
       </c>
       <c r="C8" s="4">
-        <v>13.091699999999999</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>4.7727000000000004</v>
+        <v>4.8971999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1125,13 @@
         <v>882</v>
       </c>
       <c r="B9" s="4">
-        <v>7.8685</v>
+        <v>8.0010999999999992</v>
       </c>
       <c r="C9" s="4">
-        <v>13.1927</v>
+        <v>13.415699999999999</v>
       </c>
       <c r="D9" s="4">
-        <v>4.9358000000000004</v>
+        <v>5.0133999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,13 +1139,13 @@
         <v>1008</v>
       </c>
       <c r="B10" s="4">
-        <v>7.8032000000000004</v>
+        <v>7.9866000000000001</v>
       </c>
       <c r="C10" s="4">
-        <v>13.302</v>
+        <v>13.5244</v>
       </c>
       <c r="D10" s="4">
-        <v>5.1006999999999998</v>
+        <v>5.1281999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,13 +1153,13 @@
         <v>1134</v>
       </c>
       <c r="B11" s="4">
-        <v>7.7397999999999998</v>
+        <v>7.9702999999999999</v>
       </c>
       <c r="C11" s="4">
-        <v>13.405900000000001</v>
+        <v>13.629</v>
       </c>
       <c r="D11" s="4">
-        <v>5.2590000000000003</v>
+        <v>5.2408999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,13 +1167,13 @@
         <v>1260</v>
       </c>
       <c r="B12" s="4">
-        <v>7.6780999999999997</v>
+        <v>7.9492000000000003</v>
       </c>
       <c r="C12" s="4">
-        <v>13.497199999999999</v>
+        <v>13.724299999999999</v>
       </c>
       <c r="D12" s="4">
-        <v>5.4040999999999997</v>
+        <v>5.3498000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,13 +1181,13 @@
         <v>1386</v>
       </c>
       <c r="B13" s="4">
-        <v>7.6185</v>
+        <v>7.923</v>
       </c>
       <c r="C13" s="4">
-        <v>13.572800000000001</v>
+        <v>13.8079</v>
       </c>
       <c r="D13" s="4">
-        <v>5.5327000000000002</v>
+        <v>5.4527999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,13 +1195,13 @@
         <v>1512</v>
       </c>
       <c r="B14" s="4">
-        <v>7.5618999999999996</v>
+        <v>7.8925000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>13.631600000000001</v>
+        <v>13.8788</v>
       </c>
       <c r="D14" s="4">
-        <v>5.6429</v>
+        <v>5.5483000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
         <v>1638</v>
       </c>
       <c r="B15" s="4">
-        <v>7.5086000000000004</v>
+        <v>7.8587999999999996</v>
       </c>
       <c r="C15" s="4">
-        <v>13.6737</v>
+        <v>13.9369</v>
       </c>
       <c r="D15" s="4">
-        <v>5.7344999999999997</v>
+        <v>5.6352000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,13 +1223,13 @@
         <v>1764</v>
       </c>
       <c r="B16" s="4">
-        <v>7.4591000000000003</v>
+        <v>7.8231000000000002</v>
       </c>
       <c r="C16" s="4">
-        <v>13.6997</v>
+        <v>13.9826</v>
       </c>
       <c r="D16" s="4">
-        <v>5.8074000000000003</v>
+        <v>5.7125000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1237,13 +1237,13 @@
         <v>1890</v>
       </c>
       <c r="B17" s="4">
-        <v>7.4132999999999996</v>
+        <v>7.7862999999999998</v>
       </c>
       <c r="C17" s="4">
-        <v>13.711</v>
+        <v>14.016500000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>5.8630000000000004</v>
+        <v>5.7801</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,13 +1251,13 @@
         <v>2016</v>
       </c>
       <c r="B18" s="4">
-        <v>7.3712</v>
+        <v>7.7492999999999999</v>
       </c>
       <c r="C18" s="4">
-        <v>13.708600000000001</v>
+        <v>14.0395</v>
       </c>
       <c r="D18" s="4">
-        <v>5.9023000000000003</v>
+        <v>5.8377999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,13 +1265,13 @@
         <v>2142</v>
       </c>
       <c r="B19" s="4">
-        <v>7.3324999999999996</v>
+        <v>7.7126000000000001</v>
       </c>
       <c r="C19" s="4">
-        <v>13.694000000000001</v>
+        <v>14.0526</v>
       </c>
       <c r="D19" s="4">
-        <v>5.9268999999999998</v>
+        <v>5.8860000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,47 +1279,63 @@
         <v>2268</v>
       </c>
       <c r="B20" s="4">
-        <v>7.2971000000000004</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+        <v>7.6767000000000003</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14.0564</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5.9248000000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2394</v>
       </c>
       <c r="B21" s="4">
-        <v>7.2645999999999997</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+        <v>7.6418999999999997</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14.052</v>
+      </c>
+      <c r="D21" s="4">
+        <v>5.9550000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2520</v>
       </c>
       <c r="B22" s="4">
-        <v>7.2348999999999997</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+        <v>7.6085000000000003</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14.0402</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5.9768999999999997</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2646</v>
       </c>
       <c r="B23" s="4">
-        <v>7.2076000000000002</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+        <v>7.5763999999999996</v>
+      </c>
+      <c r="C23" s="4">
+        <v>14.021800000000001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.9913999999999996</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2772</v>
       </c>
       <c r="B24" s="4">
-        <v>7.1825000000000001</v>
+        <v>7.5457999999999998</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1329,7 +1345,7 @@
         <v>2898</v>
       </c>
       <c r="B25" s="4">
-        <v>7.1593</v>
+        <v>7.5167999999999999</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1339,7 +1355,7 @@
         <v>3024</v>
       </c>
       <c r="B26" s="4">
-        <v>7.1379999999999999</v>
+        <v>7.4893000000000001</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1349,7 +1365,7 @@
         <v>3150</v>
       </c>
       <c r="B27" s="4">
-        <v>7.1182999999999996</v>
+        <v>7.4631999999999996</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1359,7 +1375,7 @@
         <v>3276</v>
       </c>
       <c r="B28" s="4">
-        <v>7.1</v>
+        <v>7.4386000000000001</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1369,7 +1385,7 @@
         <v>3402</v>
       </c>
       <c r="B29" s="4">
-        <v>7.0830000000000002</v>
+        <v>7.4153000000000002</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1379,7 +1395,7 @@
         <v>3528</v>
       </c>
       <c r="B30" s="4">
-        <v>7.0671999999999997</v>
+        <v>7.3932000000000002</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1389,7 +1405,7 @@
         <v>3654</v>
       </c>
       <c r="B31" s="4">
-        <v>7.0525000000000002</v>
+        <v>7.3724999999999996</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1399,7 +1415,7 @@
         <v>3780</v>
       </c>
       <c r="B32" s="4">
-        <v>7.0387000000000004</v>
+        <v>7.3528000000000002</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1409,7 +1425,7 @@
         <v>3906</v>
       </c>
       <c r="B33" s="4">
-        <v>7.0259</v>
+        <v>7.3342000000000001</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1419,7 +1435,7 @@
         <v>4032</v>
       </c>
       <c r="B34" s="4">
-        <v>7.0137999999999998</v>
+        <v>7.3167</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1429,7 +1445,7 @@
         <v>4158</v>
       </c>
       <c r="B35" s="4">
-        <v>7.0023999999999997</v>
+        <v>7.3</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1439,7 +1455,7 @@
         <v>4284</v>
       </c>
       <c r="B36" s="4">
-        <v>6.9916999999999998</v>
+        <v>7.2843</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1449,7 +1465,7 @@
         <v>4410</v>
       </c>
       <c r="B37" s="4">
-        <v>6.9816000000000003</v>
+        <v>7.2694000000000001</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1459,7 +1475,7 @@
         <v>4536</v>
       </c>
       <c r="B38" s="4">
-        <v>6.9721000000000002</v>
+        <v>7.2552000000000003</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1469,7 +1485,7 @@
         <v>4662</v>
       </c>
       <c r="B39" s="4">
-        <v>6.9630999999999998</v>
+        <v>7.2417999999999996</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1479,7 +1495,7 @@
         <v>4788</v>
       </c>
       <c r="B40" s="4">
-        <v>6.9545000000000003</v>
+        <v>7.2290000000000001</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1489,7 +1505,7 @@
         <v>4914</v>
       </c>
       <c r="B41" s="4">
-        <v>6.9463999999999997</v>
+        <v>7.2168999999999999</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1499,7 +1515,7 @@
         <v>5040</v>
       </c>
       <c r="B42" s="4">
-        <v>6.9386999999999999</v>
+        <v>7.2053000000000003</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1509,7 +1525,7 @@
         <v>5166</v>
       </c>
       <c r="B43" s="4">
-        <v>6.9314</v>
+        <v>7.1943000000000001</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1519,7 +1535,7 @@
         <v>5292</v>
       </c>
       <c r="B44" s="4">
-        <v>6.9244000000000003</v>
+        <v>7.1837999999999997</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1529,7 +1545,7 @@
         <v>5418</v>
       </c>
       <c r="B45" s="4">
-        <v>6.9177</v>
+        <v>7.1737000000000002</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1539,7 +1555,7 @@
         <v>5544</v>
       </c>
       <c r="B46" s="4">
-        <v>6.9114000000000004</v>
+        <v>7.1642000000000001</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1549,7 +1565,7 @@
         <v>5670</v>
       </c>
       <c r="B47" s="4">
-        <v>6.9053000000000004</v>
+        <v>7.1550000000000002</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1559,7 +1575,7 @@
         <v>5796</v>
       </c>
       <c r="B48" s="4">
-        <v>6.8994999999999997</v>
+        <v>7.1462000000000003</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1569,7 +1585,7 @@
         <v>5922</v>
       </c>
       <c r="B49" s="4">
-        <v>6.8939000000000004</v>
+        <v>7.1378000000000004</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1579,7 +1595,7 @@
         <v>6048</v>
       </c>
       <c r="B50" s="4">
-        <v>6.8886000000000003</v>
+        <v>7.1296999999999997</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1589,7 +1605,7 @@
         <v>6174</v>
       </c>
       <c r="B51" s="4">
-        <v>6.8834999999999997</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1599,7 +1615,7 @@
         <v>6300</v>
       </c>
       <c r="B52" s="4">
-        <v>6.8785999999999996</v>
+        <v>7.1146000000000003</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1609,7 +1625,7 @@
         <v>6426</v>
       </c>
       <c r="B53" s="4">
-        <v>6.8738999999999999</v>
+        <v>7.1074000000000002</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1619,7 +1635,7 @@
         <v>6552</v>
       </c>
       <c r="B54" s="4">
-        <v>6.8693</v>
+        <v>7.1006</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1629,7 +1645,7 @@
         <v>6678</v>
       </c>
       <c r="B55" s="4">
-        <v>6.8650000000000002</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1639,7 +1655,7 @@
         <v>6804</v>
       </c>
       <c r="B56" s="4">
-        <v>6.8608000000000002</v>
+        <v>7.0876000000000001</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1649,7 +1665,7 @@
         <v>6930</v>
       </c>
       <c r="B57" s="4">
-        <v>6.8567</v>
+        <v>7.0815000000000001</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1659,7 +1675,7 @@
         <v>7056</v>
       </c>
       <c r="B58" s="4">
-        <v>6.8528000000000002</v>
+        <v>7.0754999999999999</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1669,7 +1685,7 @@
         <v>7182</v>
       </c>
       <c r="B59" s="4">
-        <v>6.8491</v>
+        <v>7.0697999999999999</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1679,7 +1695,7 @@
         <v>7308</v>
       </c>
       <c r="B60" s="4">
-        <v>6.8453999999999997</v>
+        <v>7.0643000000000002</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1689,7 +1705,7 @@
         <v>7434</v>
       </c>
       <c r="B61" s="4">
-        <v>6.8418999999999999</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1699,7 +1715,7 @@
         <v>7560</v>
       </c>
       <c r="B62" s="4">
-        <v>6.8384999999999998</v>
+        <v>7.0537999999999998</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1709,7 +1725,7 @@
         <v>7686</v>
       </c>
       <c r="B63" s="4">
-        <v>6.8352000000000004</v>
+        <v>7.0488999999999997</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1719,7 +1735,7 @@
         <v>7812</v>
       </c>
       <c r="B64" s="4">
-        <v>6.8320999999999996</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1729,7 +1745,7 @@
         <v>7938</v>
       </c>
       <c r="B65" s="4">
-        <v>6.8289999999999997</v>
+        <v>7.0393999999999997</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1739,7 +1755,7 @@
         <v>8064</v>
       </c>
       <c r="B66" s="4">
-        <v>6.8259999999999996</v>
+        <v>7.0347999999999997</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1749,7 +1765,7 @@
         <v>8190</v>
       </c>
       <c r="B67" s="4">
-        <v>6.8231000000000002</v>
+        <v>7.0305</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1759,7 +1775,7 @@
         <v>8316</v>
       </c>
       <c r="B68" s="4">
-        <v>6.8202999999999996</v>
+        <v>7.0262000000000002</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1769,7 +1785,7 @@
         <v>8442</v>
       </c>
       <c r="B69" s="4">
-        <v>6.8175999999999997</v>
+        <v>7.0221</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1779,15 +1795,12 @@
         <v>8568</v>
       </c>
       <c r="B70" s="4">
-        <v>6.8150000000000004</v>
+        <v>7.0180999999999996</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:D2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{910E55E0-CC5B-4E8C-94C1-3F28E18AD55F}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33656248-93E0-4B48-959A-0EF63154C18B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ETTJ IPCA</t>
   </si>
   <si>
     <t>Inflação Implícita</t>
-  </si>
-  <si>
-    <t>ETTJ / Inflação Implicita (IPCA) (%a.a./252)</t>
   </si>
   <si>
     <t>Vértices</t>
@@ -194,13 +191,13 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FF666666"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FF666666"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -393,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -523,43 +520,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -605,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,15 +579,6 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1011,791 +962,789 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>252</v>
       </c>
       <c r="B4" s="4">
-        <v>9.1256000000000004</v>
+        <v>8.7446999999999999</v>
       </c>
       <c r="C4" s="4">
-        <v>13.664899999999999</v>
+        <v>13.218999999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>4.1597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1143999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>378</v>
       </c>
       <c r="B5" s="4">
-        <v>8.4857999999999993</v>
+        <v>8.1014999999999997</v>
       </c>
       <c r="C5" s="4">
-        <v>13.3278</v>
+        <v>12.8363</v>
       </c>
       <c r="D5" s="4">
-        <v>4.4631999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3799000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>504</v>
       </c>
       <c r="B6" s="4">
-        <v>8.1961999999999993</v>
+        <v>7.8239000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>13.2188</v>
+        <v>12.730399999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>4.6421000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5503999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>630</v>
       </c>
       <c r="B7" s="4">
-        <v>8.0726999999999993</v>
+        <v>7.7114000000000003</v>
       </c>
       <c r="C7" s="4">
-        <v>13.2354</v>
+        <v>12.7669</v>
       </c>
       <c r="D7" s="4">
-        <v>4.7770000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.6935000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>756</v>
       </c>
       <c r="B8" s="4">
-        <v>8.0228000000000002</v>
+        <v>7.6712999999999996</v>
       </c>
       <c r="C8" s="4">
-        <v>13.313000000000001</v>
+        <v>12.8691</v>
       </c>
       <c r="D8" s="4">
-        <v>4.8971999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8273999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>882</v>
       </c>
       <c r="B9" s="4">
-        <v>8.0010999999999992</v>
+        <v>7.6604000000000001</v>
       </c>
       <c r="C9" s="4">
-        <v>13.415699999999999</v>
+        <v>12.996600000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>5.0133999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.9565000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1008</v>
       </c>
       <c r="B10" s="4">
-        <v>7.9866000000000001</v>
+        <v>7.6593999999999998</v>
       </c>
       <c r="C10" s="4">
-        <v>13.5244</v>
+        <v>13.1289</v>
       </c>
       <c r="D10" s="4">
-        <v>5.1281999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0803000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1134</v>
       </c>
       <c r="B11" s="4">
-        <v>7.9702999999999999</v>
+        <v>7.6597999999999997</v>
       </c>
       <c r="C11" s="4">
-        <v>13.629</v>
+        <v>13.2553</v>
       </c>
       <c r="D11" s="4">
-        <v>5.2408999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.1973000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1260</v>
       </c>
       <c r="B12" s="4">
-        <v>7.9492000000000003</v>
+        <v>7.6578999999999997</v>
       </c>
       <c r="C12" s="4">
-        <v>13.724299999999999</v>
+        <v>13.3704</v>
       </c>
       <c r="D12" s="4">
-        <v>5.3498000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3060999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1386</v>
       </c>
       <c r="B13" s="4">
-        <v>7.923</v>
+        <v>7.6525999999999996</v>
       </c>
       <c r="C13" s="4">
-        <v>13.8079</v>
+        <v>13.4718</v>
       </c>
       <c r="D13" s="4">
-        <v>5.4527999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1512</v>
       </c>
       <c r="B14" s="4">
-        <v>7.8925000000000001</v>
+        <v>7.6437999999999997</v>
       </c>
       <c r="C14" s="4">
-        <v>13.8788</v>
+        <v>13.5586</v>
       </c>
       <c r="D14" s="4">
-        <v>5.5483000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.4946999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1638</v>
       </c>
       <c r="B15" s="4">
-        <v>7.8587999999999996</v>
+        <v>7.6318000000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>13.9369</v>
+        <v>13.630699999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>5.6352000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.5735000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>1764</v>
       </c>
       <c r="B16" s="4">
-        <v>7.8231000000000002</v>
+        <v>7.6170999999999998</v>
       </c>
       <c r="C16" s="4">
-        <v>13.9826</v>
+        <v>13.688700000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>5.7125000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6417999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1890</v>
       </c>
       <c r="B17" s="4">
-        <v>7.7862999999999998</v>
+        <v>7.6001000000000003</v>
       </c>
       <c r="C17" s="4">
-        <v>14.016500000000001</v>
+        <v>13.7334</v>
       </c>
       <c r="D17" s="4">
-        <v>5.7801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2016</v>
       </c>
       <c r="B18" s="4">
-        <v>7.7492999999999999</v>
+        <v>7.5812999999999997</v>
       </c>
       <c r="C18" s="4">
-        <v>14.0395</v>
+        <v>13.765599999999999</v>
       </c>
       <c r="D18" s="4">
-        <v>5.8377999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7484000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2142</v>
       </c>
       <c r="B19" s="4">
-        <v>7.7126000000000001</v>
+        <v>7.5612000000000004</v>
       </c>
       <c r="C19" s="4">
-        <v>14.0526</v>
+        <v>13.7864</v>
       </c>
       <c r="D19" s="4">
-        <v>5.8860000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.7874999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2268</v>
       </c>
       <c r="B20" s="4">
-        <v>7.6767000000000003</v>
+        <v>7.5400999999999998</v>
       </c>
       <c r="C20" s="4">
-        <v>14.0564</v>
+        <v>13.796799999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>5.9248000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8179999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2394</v>
       </c>
       <c r="B21" s="4">
-        <v>7.6418999999999997</v>
+        <v>7.5183999999999997</v>
       </c>
       <c r="C21" s="4">
-        <v>14.052</v>
+        <v>13.797700000000001</v>
       </c>
       <c r="D21" s="4">
-        <v>5.9550000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8402000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2520</v>
       </c>
       <c r="B22" s="4">
-        <v>7.6085000000000003</v>
+        <v>7.4962999999999997</v>
       </c>
       <c r="C22" s="4">
-        <v>14.0402</v>
+        <v>13.79</v>
       </c>
       <c r="D22" s="4">
-        <v>5.9768999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2646</v>
       </c>
       <c r="B23" s="4">
-        <v>7.5763999999999996</v>
+        <v>7.4740000000000002</v>
       </c>
       <c r="C23" s="4">
-        <v>14.021800000000001</v>
+        <v>13.774800000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>5.9913999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8625999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2772</v>
       </c>
       <c r="B24" s="4">
-        <v>7.5457999999999998</v>
+        <v>7.4516999999999998</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2898</v>
       </c>
       <c r="B25" s="4">
-        <v>7.5167999999999999</v>
+        <v>7.4295999999999998</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>3024</v>
       </c>
       <c r="B26" s="4">
-        <v>7.4893000000000001</v>
+        <v>7.4077000000000002</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>3150</v>
       </c>
       <c r="B27" s="4">
-        <v>7.4631999999999996</v>
+        <v>7.3863000000000003</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>3276</v>
       </c>
       <c r="B28" s="4">
-        <v>7.4386000000000001</v>
+        <v>7.3651999999999997</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>3402</v>
       </c>
       <c r="B29" s="4">
-        <v>7.4153000000000002</v>
+        <v>7.3446999999999996</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>3528</v>
       </c>
       <c r="B30" s="4">
-        <v>7.3932000000000002</v>
+        <v>7.3247</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>3654</v>
       </c>
       <c r="B31" s="4">
-        <v>7.3724999999999996</v>
+        <v>7.3052999999999999</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>3780</v>
       </c>
       <c r="B32" s="4">
-        <v>7.3528000000000002</v>
+        <v>7.2865000000000002</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3906</v>
       </c>
       <c r="B33" s="4">
-        <v>7.3342000000000001</v>
+        <v>7.2683</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>4032</v>
       </c>
       <c r="B34" s="4">
-        <v>7.3167</v>
+        <v>7.2507000000000001</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>4158</v>
       </c>
       <c r="B35" s="4">
-        <v>7.3</v>
+        <v>7.2336999999999998</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>4284</v>
       </c>
       <c r="B36" s="4">
-        <v>7.2843</v>
+        <v>7.2172999999999998</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>4410</v>
       </c>
       <c r="B37" s="4">
-        <v>7.2694000000000001</v>
+        <v>7.2015000000000002</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>4536</v>
       </c>
       <c r="B38" s="4">
-        <v>7.2552000000000003</v>
+        <v>7.1863000000000001</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>4662</v>
       </c>
       <c r="B39" s="4">
-        <v>7.2417999999999996</v>
+        <v>7.1715999999999998</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4788</v>
       </c>
       <c r="B40" s="4">
-        <v>7.2290000000000001</v>
+        <v>7.1574</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>4914</v>
       </c>
       <c r="B41" s="4">
-        <v>7.2168999999999999</v>
+        <v>7.1437999999999997</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5040</v>
       </c>
       <c r="B42" s="4">
-        <v>7.2053000000000003</v>
+        <v>7.1307</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>5166</v>
       </c>
       <c r="B43" s="4">
-        <v>7.1943000000000001</v>
+        <v>7.1181000000000001</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>5292</v>
       </c>
       <c r="B44" s="4">
-        <v>7.1837999999999997</v>
+        <v>7.1059999999999999</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>5418</v>
       </c>
       <c r="B45" s="4">
-        <v>7.1737000000000002</v>
+        <v>7.0942999999999996</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>5544</v>
       </c>
       <c r="B46" s="4">
-        <v>7.1642000000000001</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>5670</v>
       </c>
       <c r="B47" s="4">
-        <v>7.1550000000000002</v>
+        <v>7.0721999999999996</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>5796</v>
       </c>
       <c r="B48" s="4">
-        <v>7.1462000000000003</v>
+        <v>7.0617000000000001</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>5922</v>
       </c>
       <c r="B49" s="4">
-        <v>7.1378000000000004</v>
+        <v>7.0517000000000003</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>6048</v>
       </c>
       <c r="B50" s="4">
-        <v>7.1296999999999997</v>
+        <v>7.0419999999999998</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>6174</v>
       </c>
       <c r="B51" s="4">
-        <v>7.1219999999999999</v>
+        <v>7.0326000000000004</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>6300</v>
       </c>
       <c r="B52" s="4">
-        <v>7.1146000000000003</v>
+        <v>7.0236000000000001</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>6426</v>
       </c>
       <c r="B53" s="4">
-        <v>7.1074000000000002</v>
+        <v>7.0148999999999999</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>6552</v>
       </c>
       <c r="B54" s="4">
-        <v>7.1006</v>
+        <v>7.0065</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>6678</v>
       </c>
       <c r="B55" s="4">
-        <v>7.0940000000000003</v>
+        <v>6.9984000000000002</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>6804</v>
       </c>
       <c r="B56" s="4">
-        <v>7.0876000000000001</v>
+        <v>6.9905999999999997</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>6930</v>
       </c>
       <c r="B57" s="4">
-        <v>7.0815000000000001</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>7056</v>
       </c>
       <c r="B58" s="4">
-        <v>7.0754999999999999</v>
+        <v>6.9756999999999998</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>7182</v>
       </c>
       <c r="B59" s="4">
-        <v>7.0697999999999999</v>
+        <v>6.9687000000000001</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>7308</v>
       </c>
       <c r="B60" s="4">
-        <v>7.0643000000000002</v>
+        <v>6.9618000000000002</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>7434</v>
       </c>
       <c r="B61" s="4">
-        <v>7.0590000000000002</v>
+        <v>6.9551999999999996</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>7560</v>
       </c>
       <c r="B62" s="4">
-        <v>7.0537999999999998</v>
+        <v>6.9488000000000003</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>7686</v>
       </c>
       <c r="B63" s="4">
-        <v>7.0488999999999997</v>
+        <v>6.9425999999999997</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>7812</v>
       </c>
       <c r="B64" s="4">
-        <v>7.0439999999999996</v>
+        <v>6.9366000000000003</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>7938</v>
       </c>
       <c r="B65" s="4">
-        <v>7.0393999999999997</v>
+        <v>6.9307999999999996</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>8064</v>
       </c>
       <c r="B66" s="4">
-        <v>7.0347999999999997</v>
+        <v>6.9250999999999996</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>8190</v>
       </c>
       <c r="B67" s="4">
-        <v>7.0305</v>
+        <v>6.9196999999999997</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>8316</v>
       </c>
       <c r="B68" s="4">
-        <v>7.0262000000000002</v>
+        <v>6.9142999999999999</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>8442</v>
       </c>
       <c r="B69" s="4">
-        <v>7.0221</v>
+        <v>6.9092000000000002</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>8568</v>
       </c>
       <c r="B70" s="4">
-        <v>7.0180999999999996</v>
+        <v>6.9042000000000003</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>

--- a/ETTJ.xlsx
+++ b/ETTJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8a5ea1c8336e55/Compartilhada/Projeto - Balcão The Hill/Cofing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33656248-93E0-4B48-959A-0EF63154C18B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{F21583E8-1598-4397-B0E9-09D32BD55F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5805B03A-5E2D-46D5-B643-22F389400C90}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DFE7BD8-844B-421B-B124-E01C2294719F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -962,7 +958,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,13 +975,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -999,18 +995,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>252</v>
       </c>
       <c r="B4" s="4">
-        <v>8.7446999999999999</v>
+        <v>8.7295999999999996</v>
       </c>
       <c r="C4" s="4">
-        <v>13.218999999999999</v>
+        <v>13.180099999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>4.1143999999999998</v>
+        <v>4.0930999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1018,13 +1014,13 @@
         <v>378</v>
       </c>
       <c r="B5" s="4">
-        <v>8.1014999999999997</v>
+        <v>8.1135000000000002</v>
       </c>
       <c r="C5" s="4">
-        <v>12.8363</v>
+        <v>12.8108</v>
       </c>
       <c r="D5" s="4">
-        <v>4.3799000000000001</v>
+        <v>4.3446999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,13 +1028,13 @@
         <v>504</v>
       </c>
       <c r="B6" s="4">
-        <v>7.8239000000000001</v>
+        <v>7.8647</v>
       </c>
       <c r="C6" s="4">
-        <v>12.730399999999999</v>
+        <v>12.7133</v>
       </c>
       <c r="D6" s="4">
-        <v>4.5503999999999998</v>
+        <v>4.4950000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1046,13 +1042,13 @@
         <v>630</v>
       </c>
       <c r="B7" s="4">
-        <v>7.7114000000000003</v>
+        <v>7.7706</v>
       </c>
       <c r="C7" s="4">
-        <v>12.7669</v>
+        <v>12.7547</v>
       </c>
       <c r="D7" s="4">
-        <v>4.6935000000000002</v>
+        <v>4.6246999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,13 +1056,13 @@
         <v>756</v>
       </c>
       <c r="B8" s="4">
-        <v>7.6712999999999996</v>
+        <v>7.7386999999999997</v>
       </c>
       <c r="C8" s="4">
-        <v>12.8691</v>
+        <v>12.8597</v>
       </c>
       <c r="D8" s="4">
-        <v>4.8273999999999999</v>
+        <v>4.7530999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,13 +1070,13 @@
         <v>882</v>
       </c>
       <c r="B9" s="4">
-        <v>7.6604000000000001</v>
+        <v>7.7290999999999999</v>
       </c>
       <c r="C9" s="4">
-        <v>12.996600000000001</v>
+        <v>12.989100000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>4.9565000000000001</v>
+        <v>4.8826000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,13 +1084,13 @@
         <v>1008</v>
       </c>
       <c r="B10" s="4">
-        <v>7.6593999999999998</v>
+        <v>7.7249999999999996</v>
       </c>
       <c r="C10" s="4">
-        <v>13.1289</v>
+        <v>13.1228</v>
       </c>
       <c r="D10" s="4">
-        <v>5.0803000000000003</v>
+        <v>5.0106999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,13 +1098,13 @@
         <v>1134</v>
       </c>
       <c r="B11" s="4">
-        <v>7.6597999999999997</v>
+        <v>7.7199</v>
       </c>
       <c r="C11" s="4">
-        <v>13.2553</v>
+        <v>13.250500000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>5.1973000000000003</v>
+        <v>5.1341999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,13 +1112,13 @@
         <v>1260</v>
       </c>
       <c r="B12" s="4">
-        <v>7.6578999999999997</v>
+        <v>7.7114000000000003</v>
       </c>
       <c r="C12" s="4">
-        <v>13.3704</v>
+        <v>13.367000000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>5.3060999999999998</v>
+        <v>5.2506000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,13 +1126,13 @@
         <v>1386</v>
       </c>
       <c r="B13" s="4">
-        <v>7.6525999999999996</v>
+        <v>7.6992000000000003</v>
       </c>
       <c r="C13" s="4">
-        <v>13.4718</v>
+        <v>13.469900000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>5.4055</v>
+        <v>5.3581000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,13 +1140,13 @@
         <v>1512</v>
       </c>
       <c r="B14" s="4">
-        <v>7.6437999999999997</v>
+        <v>7.6835000000000004</v>
       </c>
       <c r="C14" s="4">
-        <v>13.5586</v>
+        <v>13.558299999999999</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4946999999999999</v>
+        <v>5.4555999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,13 +1154,13 @@
         <v>1638</v>
       </c>
       <c r="B15" s="4">
-        <v>7.6318000000000001</v>
+        <v>7.665</v>
       </c>
       <c r="C15" s="4">
-        <v>13.630699999999999</v>
+        <v>13.632300000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>5.5735000000000001</v>
+        <v>5.5423999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,13 +1168,13 @@
         <v>1764</v>
       </c>
       <c r="B16" s="4">
-        <v>7.6170999999999998</v>
+        <v>7.6443000000000003</v>
       </c>
       <c r="C16" s="4">
-        <v>13.688700000000001</v>
+        <v>13.6922</v>
       </c>
       <c r="D16" s="4">
-        <v>5.6417999999999999</v>
+        <v>5.6184000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,13 +1182,13 @@
         <v>1890</v>
       </c>
       <c r="B17" s="4">
-        <v>7.6001000000000003</v>
+        <v>7.6219000000000001</v>
       </c>
       <c r="C17" s="4">
-        <v>13.7334</v>
+        <v>13.739000000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>5.7</v>
+        <v>5.6837999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,13 +1196,13 @@
         <v>2016</v>
       </c>
       <c r="B18" s="4">
-        <v>7.5812999999999997</v>
+        <v>7.5983999999999998</v>
       </c>
       <c r="C18" s="4">
-        <v>13.765599999999999</v>
+        <v>13.773400000000001</v>
       </c>
       <c r="D18" s="4">
-        <v>5.7484000000000002</v>
+        <v>5.7389000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,13 +1210,13 @@
         <v>2142</v>
       </c>
       <c r="B19" s="4">
-        <v>7.5612000000000004</v>
+        <v>7.5740999999999996</v>
       </c>
       <c r="C19" s="4">
-        <v>13.7864</v>
+        <v>13.7965</v>
       </c>
       <c r="D19" s="4">
-        <v>5.7874999999999996</v>
+        <v>5.7842000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,13 +1224,13 @@
         <v>2268</v>
       </c>
       <c r="B20" s="4">
-        <v>7.5400999999999998</v>
+        <v>7.5495000000000001</v>
       </c>
       <c r="C20" s="4">
-        <v>13.796799999999999</v>
+        <v>13.809200000000001</v>
       </c>
       <c r="D20" s="4">
-        <v>5.8179999999999996</v>
+        <v>5.8201999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,13 +1238,13 @@
         <v>2394</v>
       </c>
       <c r="B21" s="4">
-        <v>7.5183999999999997</v>
+        <v>7.5247999999999999</v>
       </c>
       <c r="C21" s="4">
-        <v>13.797700000000001</v>
+        <v>13.8125</v>
       </c>
       <c r="D21" s="4">
-        <v>5.8402000000000003</v>
+        <v>5.8475999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,13 +1252,13 @@
         <v>2520</v>
       </c>
       <c r="B22" s="4">
-        <v>7.4962999999999997</v>
+        <v>7.5003000000000002</v>
       </c>
       <c r="C22" s="4">
-        <v>13.79</v>
+        <v>13.8072</v>
       </c>
       <c r="D22" s="4">
-        <v>5.8548</v>
+        <v>5.8667999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,13 +1266,13 @@
         <v>2646</v>
       </c>
       <c r="B23" s="4">
-        <v>7.4740000000000002</v>
+        <v>7.476</v>
       </c>
       <c r="C23" s="4">
-        <v>13.774800000000001</v>
+        <v>13.7944</v>
       </c>
       <c r="D23" s="4">
-        <v>5.8625999999999996</v>
+        <v>5.8788</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,7 +1280,7 @@
         <v>2772</v>
       </c>
       <c r="B24" s="4">
-        <v>7.4516999999999998</v>
+        <v>7.4523000000000001</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1294,7 +1290,7 @@
         <v>2898</v>
       </c>
       <c r="B25" s="4">
-        <v>7.4295999999999998</v>
+        <v>7.4291</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1304,7 +1300,7 @@
         <v>3024</v>
       </c>
       <c r="B26" s="4">
-        <v>7.4077000000000002</v>
+        <v>7.4066000000000001</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1314,7 +1310,7 @@
         <v>3150</v>
       </c>
       <c r="B27" s="4">
-        <v>7.3863000000000003</v>
+        <v>7.3846999999999996</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1324,7 +1320,7 @@
         <v>3276</v>
       </c>
       <c r="B28" s="4">
-        <v>7.3651999999999997</v>
+        <v>7.3635999999999999</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1334,7 +1330,7 @@
         <v>3402</v>
       </c>
       <c r="B29" s="4">
-        <v>7.3446999999999996</v>
+        <v>7.3433000000000002</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1344,7 +1340,7 @@
         <v>3528</v>
       </c>
       <c r="B30" s="4">
-        <v>7.3247</v>
+        <v>7.3236999999999997</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1354,7 +1350,7 @@
         <v>3654</v>
       </c>
       <c r="B31" s="4">
-        <v>7.3052999999999999</v>
+        <v>7.3048000000000002</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1364,7 +1360,7 @@
         <v>3780</v>
       </c>
       <c r="B32" s="4">
-        <v>7.2865000000000002</v>
+        <v>7.2866999999999997</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1374,7 +1370,7 @@
         <v>3906</v>
       </c>
       <c r="B33" s="4">
-        <v>7.2683</v>
+        <v>7.2694000000000001</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1384,7 +1380,7 @@
         <v>4032</v>
       </c>
       <c r="B34" s="4">
-        <v>7.2507000000000001</v>
+        <v>7.2526999999999999</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1394,7 +1390,7 @@
         <v>4158</v>
       </c>
       <c r="B35" s="4">
-        <v>7.2336999999999998</v>
+        <v>7.2367999999999997</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1404,7 +1400,7 @@
         <v>4284</v>
       </c>
       <c r="B36" s="4">
-        <v>7.2172999999999998</v>
+        <v>7.2214999999999998</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1414,7 +1410,7 @@
         <v>4410</v>
       </c>
       <c r="B37" s="4">
-        <v>7.2015000000000002</v>
+        <v>7.2069000000000001</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1424,7 +1420,7 @@
         <v>4536</v>
       </c>
       <c r="B38" s="4">
-        <v>7.1863000000000001</v>
+        <v>7.1928999999999998</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1434,7 +1430,7 @@
         <v>4662</v>
       </c>
       <c r="B39" s="4">
-        <v>7.1715999999999998</v>
+        <v>7.1795</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1444,7 +1440,7 @@
         <v>4788</v>
       </c>
       <c r="B40" s="4">
-        <v>7.1574</v>
+        <v>7.1666999999999996</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1454,7 +1450,7 @@
         <v>4914</v>
       </c>
       <c r="B41" s="4">
-        <v>7.1437999999999997</v>
+        <v>7.1543999999999999</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1464,7 +1460,7 @@
         <v>5040</v>
       </c>
       <c r="B42" s="4">
-        <v>7.1307</v>
+        <v>7.1425999999999998</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1474,7 +1470,7 @@
         <v>5166</v>
       </c>
       <c r="B43" s="4">
-        <v>7.1181000000000001</v>
+        <v>7.1313000000000004</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1484,7 +1480,7 @@
         <v>5292</v>
       </c>
       <c r="B44" s="4">
-        <v>7.1059999999999999</v>
+        <v>7.1204000000000001</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1494,7 +1490,7 @@
         <v>5418</v>
       </c>
       <c r="B45" s="4">
-        <v>7.0942999999999996</v>
+        <v>7.11</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1504,7 +1500,7 @@
         <v>5544</v>
       </c>
       <c r="B46" s="4">
-        <v>7.0830000000000002</v>
+        <v>7.1001000000000003</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1514,7 +1510,7 @@
         <v>5670</v>
       </c>
       <c r="B47" s="4">
-        <v>7.0721999999999996</v>
+        <v>7.0904999999999996</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1524,7 +1520,7 @@
         <v>5796</v>
       </c>
       <c r="B48" s="4">
-        <v>7.0617000000000001</v>
+        <v>7.0812999999999997</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1534,7 +1530,7 @@
         <v>5922</v>
       </c>
       <c r="B49" s="4">
-        <v>7.0517000000000003</v>
+        <v>7.0724999999999998</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1544,7 +1540,7 @@
         <v>6048</v>
       </c>
       <c r="B50" s="4">
-        <v>7.0419999999999998</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1554,7 +1550,7 @@
         <v>6174</v>
       </c>
       <c r="B51" s="4">
-        <v>7.0326000000000004</v>
+        <v>7.0557999999999996</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1564,7 +1560,7 @@
         <v>6300</v>
       </c>
       <c r="B52" s="4">
-        <v>7.0236000000000001</v>
+        <v>7.048</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1574,7 +1570,7 @@
         <v>6426</v>
       </c>
       <c r="B53" s="4">
-        <v>7.0148999999999999</v>
+        <v>7.0404</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1584,7 +1580,7 @@
         <v>6552</v>
       </c>
       <c r="B54" s="4">
-        <v>7.0065</v>
+        <v>7.0331000000000001</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1594,7 +1590,7 @@
         <v>6678</v>
       </c>
       <c r="B55" s="4">
-        <v>6.9984000000000002</v>
+        <v>7.0260999999999996</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1604,7 +1600,7 @@
         <v>6804</v>
       </c>
       <c r="B56" s="4">
-        <v>6.9905999999999997</v>
+        <v>7.0193000000000003</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1614,7 +1610,7 @@
         <v>6930</v>
       </c>
       <c r="B57" s="4">
-        <v>6.9829999999999997</v>
+        <v>7.0126999999999997</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1624,7 +1620,7 @@
         <v>7056</v>
       </c>
       <c r="B58" s="4">
-        <v>6.9756999999999998</v>
+        <v>7.0064000000000002</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1634,7 +1630,7 @@
         <v>7182</v>
       </c>
       <c r="B59" s="4">
-        <v>6.9687000000000001</v>
+        <v>7.0003000000000002</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1644,7 +1640,7 @@
         <v>7308</v>
       </c>
       <c r="B60" s="4">
-        <v>6.9618000000000002</v>
+        <v>6.9943999999999997</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1654,7 +1650,7 @@
         <v>7434</v>
       </c>
       <c r="B61" s="4">
-        <v>6.9551999999999996</v>
+        <v>6.9886999999999997</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1664,7 +1660,7 @@
         <v>7560</v>
       </c>
       <c r="B62" s="4">
-        <v>6.9488000000000003</v>
+        <v>6.9832000000000001</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1674,7 +1670,7 @@
         <v>7686</v>
       </c>
       <c r="B63" s="4">
-        <v>6.9425999999999997</v>
+        <v>6.9779</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1684,7 +1680,7 @@
         <v>7812</v>
       </c>
       <c r="B64" s="4">
-        <v>6.9366000000000003</v>
+        <v>6.9726999999999997</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1694,7 +1690,7 @@
         <v>7938</v>
       </c>
       <c r="B65" s="4">
-        <v>6.9307999999999996</v>
+        <v>6.9676999999999998</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1704,7 +1700,7 @@
         <v>8064</v>
       </c>
       <c r="B66" s="4">
-        <v>6.9250999999999996</v>
+        <v>6.9629000000000003</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1714,7 +1710,7 @@
         <v>8190</v>
       </c>
       <c r="B67" s="4">
-        <v>6.9196999999999997</v>
+        <v>6.9581999999999997</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1724,7 +1720,7 @@
         <v>8316</v>
       </c>
       <c r="B68" s="4">
-        <v>6.9142999999999999</v>
+        <v>6.9535999999999998</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1734,7 +1730,7 @@
         <v>8442</v>
       </c>
       <c r="B69" s="4">
-        <v>6.9092000000000002</v>
+        <v>6.9492000000000003</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1744,7 +1740,7 @@
         <v>8568</v>
       </c>
       <c r="B70" s="4">
-        <v>6.9042000000000003</v>
+        <v>6.9448999999999996</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
